--- a/userActivity.xlsx
+++ b/userActivity.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>User ID</t>
   </si>
@@ -138,6 +138,138 @@
   </si>
   <si>
     <t>2023-10-21-14-40-18</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-00-43</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-00-46</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-00-49</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-00-52</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-00-54</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-00-57</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-01-00</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-01-04</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-01-32</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-01-34</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-01-37</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-01-39</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-01-57</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-02-00</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-02-02</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-02-05</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-02-08</t>
+  </si>
+  <si>
+    <t>"236"</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-05-27</t>
+  </si>
+  <si>
+    <t>"88"</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-05-33</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-06-19</t>
+  </si>
+  <si>
+    <t>"11"</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-11-09</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-11-10</t>
+  </si>
+  <si>
+    <t>"24"</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-11-11</t>
+  </si>
+  <si>
+    <t>"256"</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-14-21</t>
+  </si>
+  <si>
+    <t>2023-10-29-12-17-12</t>
   </si>
 </sst>
 </file>
@@ -182,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -485,6 +617,292 @@
         <v>41</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/userActivity.xlsx
+++ b/userActivity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bianweizhenbian/Documents/硕士(上)/ISY5001/04 Practice Module/IDEA/"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>User ID</t>
   </si>
@@ -29,12 +29,139 @@
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1038002917</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-20-08</t>
+  </si>
+  <si>
+    <t>1916833487</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-20-13</t>
+  </si>
+  <si>
+    <t>-758977943</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-20-15</t>
+  </si>
+  <si>
+    <t>-257334476</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-20-18</t>
+  </si>
+  <si>
+    <t>2140867156</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-20-28</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-1179882960</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-21-59</t>
+  </si>
+  <si>
+    <t>1224929262</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-22-02</t>
+  </si>
+  <si>
+    <t>1326925154</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-22-05</t>
+  </si>
+  <si>
+    <t>-968612111</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-22-13</t>
+  </si>
+  <si>
+    <t>1140289467</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-22-49</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-23-37</t>
+  </si>
+  <si>
+    <t>-1294250710</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-23-48</t>
+  </si>
+  <si>
+    <t>608664263</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-23-51</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-23</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-26</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-28</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-31</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-34</t>
+  </si>
+  <si>
+    <t>1870299980</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-39</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-42</t>
+  </si>
+  <si>
+    <t>1016086254</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-45</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-48</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-50</t>
+  </si>
+  <si>
+    <t>1856145476</t>
+  </si>
+  <si>
+    <t>2024-01-14-21-24-54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -391,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -410,6 +537,270 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
